--- a/Dataset/Segment/dataset_dsegment_tesla.xlsx
+++ b/Dataset/Segment/dataset_dsegment_tesla.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HomeLab\mobilitymarkets\v.0.0.2\dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18951923-DAE3-404A-9C52-D09D422F298D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF5584BE-A142-418F-851C-E797FF252356}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="13">
   <si>
     <t>January</t>
   </si>
@@ -61,13 +61,16 @@
   </si>
   <si>
     <t>December</t>
+  </si>
+  <si>
+    <t>-</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -81,6 +84,11 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -90,7 +98,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -128,17 +136,41 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -479,13 +511,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M4"/>
+  <dimension ref="A1:M6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N8" sqref="N8"/>
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="13" width="11.375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
@@ -634,6 +669,88 @@
         <v>42156</v>
       </c>
     </row>
+    <row r="5" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>2018</v>
+      </c>
+      <c r="B5" s="3">
+        <v>1900</v>
+      </c>
+      <c r="C5" s="3">
+        <v>2600</v>
+      </c>
+      <c r="D5" s="3">
+        <v>3680</v>
+      </c>
+      <c r="E5" s="3">
+        <v>3800</v>
+      </c>
+      <c r="F5" s="3">
+        <v>6311</v>
+      </c>
+      <c r="G5" s="3">
+        <v>5550</v>
+      </c>
+      <c r="H5" s="3">
+        <v>15540</v>
+      </c>
+      <c r="I5" s="3">
+        <v>17500</v>
+      </c>
+      <c r="J5" s="3">
+        <v>24000</v>
+      </c>
+      <c r="K5" s="3">
+        <v>18600</v>
+      </c>
+      <c r="L5" s="3">
+        <v>19800</v>
+      </c>
+      <c r="M5" s="3">
+        <v>25004</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>2017</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H6" s="5">
+        <v>30</v>
+      </c>
+      <c r="I6" s="5">
+        <v>70</v>
+      </c>
+      <c r="J6" s="5">
+        <v>120</v>
+      </c>
+      <c r="K6" s="5">
+        <v>150</v>
+      </c>
+      <c r="L6" s="5">
+        <v>350</v>
+      </c>
+      <c r="M6" s="3">
+        <v>1050</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
